--- a/medicine/Mort/Décès_en_1948/Décès_en_1948.xlsx
+++ b/medicine/Mort/Décès_en_1948/Décès_en_1948.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1948</t>
+          <t>Décès_en_1948</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1948</t>
+          <t>Décès_en_1948</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Robert-Henri Blot, peintre paysagiste  français (° 2 mai 1881).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Robert-Henri Blot, peintre paysagiste  français (° 2 mai 1881).
 Antonin Bourbon, peintre français (° 1867).
 Émile Boyer, peintre paysagiste français (° 30 juin 1877).
 Matilde Brandau, juriste chilienne (° décembre 1879).
@@ -543,9 +560,43 @@
 Esther Moyal, journaliste, écrivaine et militante des droits des femmes (° 1874).
 André Moufflet, grammairien et critique littéraire français (° 1883).
 Lev Okhotine, militant fasciste russe (° 9 janvier 1911)
-Ștefan Popescu, peintre, dessinateur et graveur roumain (° 20 janvier 1872).
-Janvier
-1er janvier : Hermann Zilcher, pianiste et pédagogue musical allemand (° 18 août 1881).
+Ștefan Popescu, peintre, dessinateur et graveur roumain (° 20 janvier 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Hermann Zilcher, pianiste et pédagogue musical allemand (° 18 août 1881).
 2 janvier : Henri Caruchet, peintre, aquarelliste, illustrateur et poète français (° 4 décembre 1873).
 3 janvier : Klaus Richter, peintre et écrivain allemand
 8 janvier :
@@ -561,9 +612,43 @@
 28 janvier : Aurelia Reinhardt, éducatrice américaine, activiste, présidente du Mills College (° 1er avril 1877).
 30 janvier :
 Gandhi, (assassiné) à Delhi, philosophe et homme politique indien important du mouvement pour l'indépendance de l'Inde (° 2 octobre 1869).
-Orville Wright, pionnier américain de l'aviation (° 19 août 1871).
-Février
-2 février :
+Orville Wright, pionnier américain de l'aviation (° 19 août 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février :
 Paul Audra, peintre français (° 25 juillet 1869).
 Thomas W. Lamont, banquier américain (° 30 septembre 1870).
 6 février : Henri de Nolhac, peintre et illustrateur français (° 5 novembre 1884).
@@ -572,22 +657,124 @@
 14 février : Joseph Van Daele, coureur cycliste belge (° 16 décembre 1889).
 15 février : Subhadra Kumari Chauhan, militante et poétesse indienne (° 16 août 1904).
 21 février : Frederic Lamond, pianiste et compositeur écossais (° 28 janvier 1868).
-24 février : Franz Stock, prêtre catholique allemand (° 21 septembre 1904).
-Mars
-1er mars : Louis Bate, peintre, aquarelliste, dessinateur et sculpteur français (° 10 octobre 1898).
+24 février : Franz Stock, prêtre catholique allemand (° 21 septembre 1904).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Louis Bate, peintre, aquarelliste, dessinateur et sculpteur français (° 10 octobre 1898).
 4 mars : Antonin Artaud, dramaturge, poète et comédien français (° 4 septembre 1896).
 12 mars : Alfred Lacroix, minéralogiste et géologue français (° 4 février 1863).
 14 mars : Lauri Malmberg, militaire finlandais (° 8 mai 1888).
 24 mars : Sigrid Hjertén, peintre moderniste suédoise (° 27 octobre 1885).
-29 mars : Wilfred Noy, acteur, scénariste, réalisateur et producteur britannique (° 24 décembre 1883)
-Avril
-2 avril : Biagio Biagetti, peintre et restaurateur d'art italien (° 21 juillet 1877).
+29 mars : Wilfred Noy, acteur, scénariste, réalisateur et producteur britannique (° 24 décembre 1883)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Biagio Biagetti, peintre et restaurateur d'art italien (° 21 juillet 1877).
 5 avril : Willard Robertson, acteur américain (° 1er janvier 1886).
 23  avril : Georges Dantu, peintre français (° 10 avril 1867).
 24 avril : Manuel María Ponce, compositeur mexicain (° 8 décembre 1882).
-29 avril : Luc-Albert Moreau, peintre, graveur, lithographe et illustrateur français (° 9 décembre 1882).
-Mai
-1er mai : David Šterenberg, peintre, graphiste et photographe russe puis soviétique (° 26 juillet 1881).
+29 avril : Luc-Albert Moreau, peintre, graveur, lithographe et illustrateur français (° 9 décembre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : David Šterenberg, peintre, graphiste et photographe russe puis soviétique (° 26 juillet 1881).
 3 mai : Louis Jourdan, peintre français (° 7 mars 1872).
 4 mai : Arsène Millocheau, coureur cycliste français (° 21 janvier 1867).
 15 mai : André Dauchez, peintre, dessinateur et illustrateur français (° 17 mai 1870).
@@ -596,9 +783,43 @@
 24 mai :
 Étienne Cournault, peintre, graveur et décorateur français (° 15 mars 1891).
 Jacques Feyder, cinéaste français d'origine belge (° 21 juillet 1885).
-25 mai : Jacques Koziebrodzki, peintre et sculpteur français d'origine polonaise (° 25 septembre 1887).
-Juin
-6 juin : Louis Lumière, français, inventeur du cinématographe (° 5 octobre 1864).
+25 mai : Jacques Koziebrodzki, peintre et sculpteur français d'origine polonaise (° 25 septembre 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6 juin : Louis Lumière, français, inventeur du cinématographe (° 5 octobre 1864).
 7 juin :
 Georges Hüe, compositeur français (° 6 mai 1858).
 Friedrich Zundel, peintre, architecte et mécène allemand (° 13 octobre 1875).
@@ -614,9 +835,43 @@
 Changampuzha Krishna Pillai, poète indien (° 11 octobre 1911).
 19 juin : Warner Richmond, acteur américain (° 11 janvier 1886).
 25 juin : Ernest Biéler, peintre suisse (° 31 juillet 1863).
-28 juin : Alice Dannenberg, peintre française d'origine russe (° 4 avril 1861).
-Juillet
-5 juillet : Georges Bernanos, écrivain et dramaturge français (° 20 février 1888).
+28 juin : Alice Dannenberg, peintre française d'origine russe (° 4 avril 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5 juillet : Georges Bernanos, écrivain et dramaturge français (° 20 février 1888).
 9 juillet : James Baskett, acteur afro-américain (° 16 février 1904).
 11 juillet :
 King Baggot, acteur, réalisateur et scénariste américain (° 7 novembre 1874).
@@ -625,9 +880,43 @@
 14 juillet : Jacob Niessner, criminel nazi (° 19 janvier 1908).
 15 juillet : John Pershing, militaire américain (° 13 septembre 1860).
 23 juillet : D.W. Griffith, producteur et réalisateur américain (° 22 janvier 1875).
-25 juillet : Otto Gustav Carlsund, peintre suédois (° 11 décembre 1897).
-Août
-4 août : Mileva Einstein, épouse d'Albert Einstein (° 19 décembre 1875).
+25 juillet : Otto Gustav Carlsund, peintre suédois (° 11 décembre 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 août : Mileva Einstein, épouse d'Albert Einstein (° 19 décembre 1875).
 7 août : Charles Bryant, réalisateur et acteur britannique (° 8 janvier 1879).
 10 août : Jean-Bernard Descomps, peintre et sculpteur français (° 14 mai 1872).
 13 août : Edwin Maxwell, acteur irlandais (° 9 février 1886).
@@ -638,9 +927,43 @@
 27 août : Oscar Lorenzo Fernández, compositeur brésilien d'origine espagnole (° 4 novembre 1897).
 28 août : Alexandre Chevtchenko, peintre et sculpteur russe puis soviétique (° 24 mai 1882).
 30 août : Fernand Maillaud, peintre et illustrateur français (° 12 décembre 1862).
-31 août : Andreï Jdanov, homme politique russe puis soviétique (° 16 février 1896).
-Septembre
-1er septembre :
+31 août : Andreï Jdanov, homme politique russe puis soviétique (° 16 février 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre :
 Feng Yuxiang, militaire chinois (° 6 novembre 1882).
 Jacqueline Gaussen Salmon, peintre française (° 1er mai 1906).
 3 septembre : Edvard Beneš, homme politique tchécoslovaque (° 28 mai 1884).
@@ -656,26 +979,128 @@
 Josef Hofbauer, écrivain et journaliste allemand (° 20 janvier 1886).
 26 septembre : Dušan Zinaja, skieur, joueur et entraîneur de football yougoslave (° 23 octobre 1893).
 27 septembre : Frank Cellier, acteur anglais (° 23 février 1884).
-30 septembre : André-Charles Coppier, peintre, graveur, médailliste et écrivain français (° 17 novembre 1866).
-Octobre
-1er octobre : Phraya Manopakorn Nititada, 1er Premier ministre de Thaïlande (° 15 juin 1854).
+30 septembre : André-Charles Coppier, peintre, graveur, médailliste et écrivain français (° 17 novembre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Phraya Manopakorn Nititada, 1er Premier ministre de Thaïlande (° 15 juin 1854).
 4 octobre : Edmond Defonte, peintre français (° 9 mai 1862).
 10 octobre : Siegmund von Hausegger, compositeur et chef d'orchestre autrichien (° 16 août 1872).
 13 octobre : Ulisse Caputo, peintre italien (° 5 novembre 1872).
 23 octobre : Émile Boizot, graveur sur bois et peintre français (° 31 mars 1876).
 24 octobre : Virgil Rainer, sculpteur autrichien (° 27 novembre 1871).
 27 octobre : Charles-Gaston Levadé, compositeur français (° 3 janvier 1869).
-30 octobre : William Burress, acteur américain (° 19 août 1867).
-Novembre
-10 novembre : Alexis de Broca, peintre et dessinateur français (° 3 septembre 1868).
+30 octobre : William Burress, acteur américain (° 19 août 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10 novembre : Alexis de Broca, peintre et dessinateur français (° 3 septembre 1868).
 23 novembre :
 Joseph-Paul Alizard, peintre, graveur et dessinateur français (° 12 août 1867).
 Uzeyir Hajibeyov, compositeur, chef d'orchestre, scientifique, producteur, professeur et traducteur azéri (° 18 septembre 1885).
 24 novembre : Raoul Koczalski, pianiste polonais (° 3 janvier 1884).
 25 novembre : Charles D. Brown, acteur américain (° 1er juillet 1887).
-30 novembre : George Bowyer, homme politique britannique (° 16 janvier 1886).
-Décembre
-3 décembre : Étienne Buffet, peintre français (° 5 juin 1866).
+30 novembre : George Bowyer, homme politique britannique (° 16 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1948</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1948</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre : Étienne Buffet, peintre français (° 5 juin 1866).
 6 décembre :
 Louis Pastour, peintre et poète français (° 26 juin 1876).
 George Beardoe Grundy, historien britannique (° 10 janvier 1861).
